--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetailAdjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,53 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -88,150 +88,165 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AdjPerfAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>週整加減件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>週整加減業績金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸專員業績調整檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作月</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>WorkSeason</t>
+  </si>
+  <si>
+    <t>工作季</t>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfBsDetailAdjust</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AdjPerfCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸專員業績調整檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustFacmFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作月</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>WorkSeason</t>
-  </si>
-  <si>
-    <t>工作季</t>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND WorkMonth =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,FacmNo,WorkMonth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PfBsDetailAdjust</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整後件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整後業績金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustBormFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -383,131 +398,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="5"/>
+    <cellStyle name="一般 2 4" xfId="6"/>
+    <cellStyle name="一般 2 5" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -832,10 +872,10 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -886,7 +926,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -979,7 +1019,7 @@
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <f t="shared" ref="A11:A19" si="0">A10+1</f>
+        <f t="shared" ref="A11:A20" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1002,20 +1042,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="31">
-        <v>6</v>
+      <c r="B12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="38">
+        <v>3</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
@@ -1023,61 +1063,59 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="E14" s="31">
         <v>5</v>
       </c>
-      <c r="F14" s="27">
-        <v>1</v>
-      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="26">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F15" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="28"/>
     </row>
@@ -1087,17 +1125,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="26">
+        <v>16</v>
+      </c>
+      <c r="F16" s="27">
+        <v>2</v>
+      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
@@ -1105,17 +1147,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="26">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
     </row>
@@ -1125,15 +1165,17 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="E18" s="26">
+        <v>6</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
     </row>
@@ -1143,19 +1185,37 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="26">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="26">
+        <v>6</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1167,7 +1227,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1177,9 +1237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1203,14 +1263,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
